--- a/Lab 6 - Współczynnik załamania ciał stałych/Lab6_51.xlsx
+++ b/Lab 6 - Współczynnik załamania ciał stałych/Lab6_51.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pomiary_szkło" sheetId="1" r:id="rId1"/>
     <sheet name="Pomiary_pleksiglas" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="13">
   <si>
     <t>L.p.</t>
   </si>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -396,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -431,7 +431,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -608,7 +608,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,7 +1108,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>6</v>
@@ -1421,8 +1421,9 @@
       <c r="C13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>9</v>
+      <c r="D13" s="15">
+        <f>(SUM(D3:D12))/10</f>
+        <v>4.2060000000000004</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>9</v>
